--- a/data_excel/716.xlsx
+++ b/data_excel/716.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>姐姐</t>
   </si>
@@ -87,18 +87,9 @@
     <t>數量</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>特點</t>
   </si>
   <si>
-    <t>布偶</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -160,6 +151,14 @@
   </si>
   <si>
     <t>nv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小布偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小布偶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +181,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,12 +213,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -507,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -575,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -595,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -605,17 +659,17 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -635,14 +689,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
@@ -652,159 +706,150 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,53 +857,42 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data_excel/716.xlsx
+++ b/data_excel/716.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>姐姐</t>
   </si>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>小布偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,15 +254,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -564,7 +584,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -852,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -863,12 +883,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>

--- a/data_excel/716.xlsx
+++ b/data_excel/716.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>姐姐</t>
   </si>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>nv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小布偶</t>
@@ -163,6 +159,18 @@
   </si>
   <si>
     <t>insuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +592,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,7 +688,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -711,7 +719,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -746,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -757,15 +765,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,7 +806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -809,15 +817,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,7 +896,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
